--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E7" s="2">
         <v>43826</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E8" s="3">
         <v>193900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>159100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>144100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>152900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>115600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E9" s="3">
         <v>105400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>88200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>82500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>84600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E10" s="3">
         <v>88500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>79900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14900</v>
       </c>
       <c r="J12" s="3">
         <v>14900</v>
       </c>
       <c r="K12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>2400</v>
       </c>
       <c r="F14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7000</v>
       </c>
       <c r="F15" s="3">
         <v>7000</v>
       </c>
       <c r="G15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H15" s="3">
         <v>6800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>181800</v>
+      </c>
+      <c r="E17" s="3">
         <v>173200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>156100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>152600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>130200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>134000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>20700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E21" s="3">
         <v>33300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>2000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1900</v>
       </c>
       <c r="P22" s="3">
         <v>1900</v>
       </c>
       <c r="Q22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E23" s="3">
         <v>20800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>15700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>15700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1660,20 +1721,20 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>15700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>15700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E38" s="2">
         <v>43826</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>407100</v>
+      </c>
+      <c r="E41" s="3">
         <v>182000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>257900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E43" s="3">
         <v>193400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>176200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>170700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>168300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>153900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>143800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>96600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>96900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E44" s="3">
         <v>153600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>148500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>137100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>126400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>121200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>108600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>117100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>93300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>81100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>72100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>70100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>795400</v>
+      </c>
+      <c r="E46" s="3">
         <v>545100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>503000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>582200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>425200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>399300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>364200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>331700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>313200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>252000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>246200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>448400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>224800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,37 +2487,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E48" s="3">
         <v>122500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>51600</v>
       </c>
       <c r="M48" s="3">
         <v>51600</v>
@@ -2421,63 +2529,69 @@
         <v>51600</v>
       </c>
       <c r="O48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="P48" s="3">
         <v>47400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>831400</v>
+      </c>
+      <c r="E49" s="3">
         <v>839200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>847400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>768300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>724300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>696300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>704200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>675300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>685700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>505500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>510700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>509900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>483700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>489100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2000</v>
       </c>
       <c r="P52" s="3">
         <v>2000</v>
       </c>
       <c r="Q52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1771600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1512600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1473900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1417000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1212400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1156600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1127000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1064500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1056900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>835800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>822600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>815700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>981400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>755300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E57" s="3">
         <v>36000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2822,8 +2956,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>24</v>
@@ -2831,11 +2965,11 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>10000</v>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,98 +2989,104 @@
         <v>71900</v>
       </c>
       <c r="E59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F59" s="3">
         <v>59100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>57000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E60" s="3">
         <v>107900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>73400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2952,22 +3095,22 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>276500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>240000</v>
       </c>
       <c r="I61" s="3">
         <v>240000</v>
       </c>
       <c r="J61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="K61" s="3">
         <v>195000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2976,63 +3119,69 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>176100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>180700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E62" s="3">
         <v>87700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>422200</v>
+      </c>
+      <c r="E66" s="3">
         <v>195600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>178600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>360600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>350400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>292600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>301200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>270000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>270600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E72" s="3">
         <v>261700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>246000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>226700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>213900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>199800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>187400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>180000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>169900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>166200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>157000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>139100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>130300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>123200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1349400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1317100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1295300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1284700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>812400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>796100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>776600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>771900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>755800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>749200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>734300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>725400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>711400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>484700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E80" s="2">
         <v>43826</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>15700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E83" s="3">
         <v>12500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>11600</v>
       </c>
       <c r="G83" s="3">
         <v>11600</v>
       </c>
       <c r="H83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E89" s="3">
         <v>32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7100</v>
       </c>
       <c r="H91" s="3">
         <v>-7100</v>
       </c>
       <c r="I91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-183100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,67 +4812,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>173900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>194800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-192100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>210800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4640,74 +4889,80 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-100</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E102" s="3">
         <v>20700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-96600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>145400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-228600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>224100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43917</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43826</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E8" s="3">
         <v>208000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>193900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>159100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>144100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>152900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>116300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>115600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>107300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E9" s="3">
         <v>114700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>98900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>88200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>82500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>84600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>56500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E10" s="3">
         <v>93300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>88500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>79900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14900</v>
       </c>
       <c r="K12" s="3">
         <v>14900</v>
       </c>
       <c r="L12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="M12" s="3">
         <v>15000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2400</v>
       </c>
       <c r="F14" s="3">
         <v>2400</v>
       </c>
       <c r="G14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7000</v>
       </c>
       <c r="G15" s="3">
         <v>7000</v>
       </c>
       <c r="H15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I15" s="3">
         <v>6800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E17" s="3">
         <v>181800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>173200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>156100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>152600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>139200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>130200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>102600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E18" s="3">
         <v>26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E21" s="3">
         <v>41600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>2000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1900</v>
       </c>
       <c r="Q22" s="3">
         <v>1900</v>
       </c>
       <c r="R22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E23" s="3">
         <v>28900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1724,20 +1785,20 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1300</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43917</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43826</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E41" s="3">
         <v>407100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>182000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>257900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E43" s="3">
         <v>214000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>193400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>176200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>170700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>168300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>143800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>141600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>96600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>96900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E44" s="3">
         <v>161900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>153600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>148500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>137100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>126400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>121200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>108600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>117100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>105900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>93300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>81100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>72100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>70100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>634800</v>
+      </c>
+      <c r="E46" s="3">
         <v>795400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>545100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>503000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>582200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>425200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>364200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>331700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>313200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>268900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>252000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>246200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>448400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>224800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,40 +2595,43 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E48" s="3">
         <v>139800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>122500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>51600</v>
       </c>
       <c r="N48" s="3">
         <v>51600</v>
@@ -2532,66 +2640,72 @@
         <v>51600</v>
       </c>
       <c r="P48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>47400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>39400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>822800</v>
+      </c>
+      <c r="E49" s="3">
         <v>831400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>839200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>847400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>768300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>724300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>696300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>704200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>675300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>685700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>505500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>510700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>509900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>483700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>489100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2000</v>
       </c>
       <c r="Q52" s="3">
         <v>2000</v>
       </c>
       <c r="R52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1610700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1771600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1512600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1473900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1417000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1212400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1156600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1127000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1064500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1056900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>835800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>822600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>815700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>981400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>755300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E57" s="3">
         <v>50100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2959,8 +3093,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -2968,11 +3102,11 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>10000</v>
@@ -2980,117 +3114,126 @@
       <c r="R58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71900</v>
+        <v>84000</v>
       </c>
       <c r="E59" s="3">
         <v>71900</v>
       </c>
       <c r="F59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="G59" s="3">
         <v>59100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>57000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E60" s="3">
         <v>122000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>73400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3098,22 +3241,22 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>276500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>240000</v>
       </c>
       <c r="J61" s="3">
         <v>240000</v>
       </c>
       <c r="K61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="L61" s="3">
         <v>195000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3122,66 +3265,72 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>176100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>180700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="3">
         <v>100200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E66" s="3">
         <v>422200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>178600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>132200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>360600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>350400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>292600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>301200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>270000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>270600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E72" s="3">
         <v>285200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>261700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>246000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>226700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>213900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>199800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>187400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>180000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>169900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>166200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>157000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>139100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>130300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>123200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1384800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1349400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1317100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1295300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1284700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>812400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>796100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>776600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>771900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>755800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>749200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>734300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>711400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>484700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43917</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43826</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>11600</v>
       </c>
       <c r="H83" s="3">
         <v>11600</v>
       </c>
       <c r="I83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E89" s="3">
         <v>30100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-7100</v>
       </c>
       <c r="I91" s="3">
         <v>-7100</v>
       </c>
       <c r="J91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-106100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-183100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,73 +5058,79 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-197600</v>
+      </c>
+      <c r="E100" s="3">
         <v>201600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>173900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>194800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-192100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>210800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4892,77 +5141,83 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-180300</v>
+      </c>
+      <c r="E102" s="3">
         <v>225100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-96600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>145400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-228600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>224100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43917</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43826</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E8" s="3">
         <v>217400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>208000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>193900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>159100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>144100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>152900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>116300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>107300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E9" s="3">
         <v>120800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>114700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>98900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>97100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>88200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>82500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>84600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E10" s="3">
         <v>96600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>93300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>14900</v>
       </c>
       <c r="L12" s="3">
         <v>14900</v>
       </c>
       <c r="M12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="N12" s="3">
         <v>15000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2400</v>
       </c>
       <c r="G14" s="3">
         <v>2400</v>
       </c>
       <c r="H14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,52 +1112,55 @@
         <v>7700</v>
       </c>
       <c r="E15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7000</v>
       </c>
       <c r="H15" s="3">
         <v>7000</v>
       </c>
       <c r="I15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J15" s="3">
         <v>6800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E17" s="3">
         <v>191300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>181800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>173200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>160100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>156100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>152600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>139200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>134000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>102600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E18" s="3">
         <v>26100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E21" s="3">
         <v>40700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1900</v>
       </c>
       <c r="R22" s="3">
         <v>1900</v>
       </c>
       <c r="S22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E26" s="3">
         <v>27200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1788,20 +1848,20 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1300</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43917</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43826</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E41" s="3">
         <v>226800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>407100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>182000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>161300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>257900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>112500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E43" s="3">
         <v>210700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>214000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>193400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>177500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>176200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>170700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>168300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>143800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>141600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>121500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>113700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>96600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>96900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E44" s="3">
         <v>178100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>161900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>153600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>148500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>137100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>131700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>126400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>121200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>108600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>117100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>93300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>81100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>72100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>70100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>676700</v>
+      </c>
+      <c r="E46" s="3">
         <v>634800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>795400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>545100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>503000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>582200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>425200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>399300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>364200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>331700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>313200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>268900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>252000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>246200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>448400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>224800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,43 +2702,46 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E48" s="3">
         <v>148400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>122500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>55900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>51600</v>
       </c>
       <c r="O48" s="3">
         <v>51600</v>
@@ -2643,69 +2750,75 @@
         <v>51600</v>
       </c>
       <c r="Q48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="R48" s="3">
         <v>47400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>39400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>815300</v>
+      </c>
+      <c r="E49" s="3">
         <v>822800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>831400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>839200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>847400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>768300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>724300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>696300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>704200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>675300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>685700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>505500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>510700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>509900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>483700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>489100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2000</v>
       </c>
       <c r="R52" s="3">
         <v>2000</v>
       </c>
       <c r="S52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1653200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1610700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1771600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1512600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1473900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1417000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1212400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1156600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1127000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1064500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1056900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>835800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>822600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>815700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>981400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>755300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3140,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E57" s="3">
         <v>41900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3096,8 +3229,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -3105,11 +3238,11 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>10000</v>
@@ -3117,114 +3250,123 @@
       <c r="S58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E59" s="3">
         <v>84000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>71900</v>
       </c>
       <c r="F59" s="3">
         <v>71900</v>
       </c>
       <c r="G59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="H59" s="3">
         <v>59100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E60" s="3">
         <v>125900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>75300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>73400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,11 +3374,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>200000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3244,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>276500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>240000</v>
       </c>
       <c r="K61" s="3">
         <v>240000</v>
       </c>
       <c r="L61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="M61" s="3">
         <v>195000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3268,69 +3410,75 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>176100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>180700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E62" s="3">
         <v>100000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>245300</v>
+      </c>
+      <c r="E66" s="3">
         <v>225900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>422200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>178600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>360600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>350400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>292600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>301200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>90300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>270000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>270600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E72" s="3">
         <v>312500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>285200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>261700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>246000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>226700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>213900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>199800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>187400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>180000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>169900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>166200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>157000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>139100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>130300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>123200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1407900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1384800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1349400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1317100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1295300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1284700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>812400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>796100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>776600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>771900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>755800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>749200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>734300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>711400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>484700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43917</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43826</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E83" s="3">
         <v>12800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11600</v>
       </c>
       <c r="I83" s="3">
         <v>11600</v>
       </c>
       <c r="J83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E89" s="3">
         <v>28700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7100</v>
       </c>
       <c r="J91" s="3">
         <v>-7100</v>
       </c>
       <c r="K91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-106100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-183100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,79 +5303,85 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-197600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>201600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>173900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>194800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-192100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>210800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5144,80 +5392,86 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-180300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>225100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-96600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>145400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-228600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>224100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43826</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E8" s="3">
         <v>205600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>217400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>208000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>193900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>159100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>144100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>152900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>116300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>117900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>107300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>98000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E9" s="3">
         <v>117500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>120800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>114700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>105400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>97100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>88200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>82500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>84600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>56500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E10" s="3">
         <v>88100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>96600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>93300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E12" s="3">
         <v>27400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>14900</v>
       </c>
       <c r="M12" s="3">
         <v>14900</v>
       </c>
       <c r="N12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="O12" s="3">
         <v>15000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,120 +1063,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2400</v>
       </c>
       <c r="H14" s="3">
         <v>2400</v>
       </c>
       <c r="I14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E15" s="3">
         <v>7700</v>
       </c>
       <c r="F15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G15" s="3">
         <v>7800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7000</v>
       </c>
       <c r="I15" s="3">
         <v>7000</v>
       </c>
       <c r="J15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K15" s="3">
         <v>6800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E17" s="3">
         <v>187000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>191300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>181800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>173200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>160100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>156100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>152600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>134000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>102600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>89100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>18600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E21" s="3">
         <v>31000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>2000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1900</v>
       </c>
       <c r="S22" s="3">
         <v>1900</v>
       </c>
       <c r="T22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>15800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1851,20 +1911,20 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1300</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43826</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E41" s="3">
         <v>239100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>226800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>407100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>182000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>257900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>112500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>270200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>46200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2514,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E43" s="3">
         <v>207800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>210700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>214000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>193400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>177500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>176200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>170700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>168300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>153900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>141600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>121500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>113700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>96600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>96900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E44" s="3">
         <v>206000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>178100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>161900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>153600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>148500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>137100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>131700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>126400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>121200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>108600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>105900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>93300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>81100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>72100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>70100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E45" s="3">
         <v>23700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>645700</v>
+      </c>
+      <c r="E46" s="3">
         <v>676700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>634800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>795400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>545100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>503000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>582200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>425200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>399300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>364200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>331700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>313200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>268900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>252000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>246200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>448400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>224800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,46 +2809,49 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E48" s="3">
         <v>156700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>148400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>122500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>55900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>51600</v>
       </c>
       <c r="P48" s="3">
         <v>51600</v>
@@ -2753,72 +2860,78 @@
         <v>51600</v>
       </c>
       <c r="R48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="S48" s="3">
         <v>47400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>39400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1093600</v>
+      </c>
+      <c r="E49" s="3">
         <v>815300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>822800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>831400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>839200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>847400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>768300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>724300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>696300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>704200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>675300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>685700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>505500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>510700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>509900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>483700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>489100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2000</v>
       </c>
       <c r="S52" s="3">
         <v>2000</v>
       </c>
       <c r="T52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1949200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1653200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1610700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1771600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1512600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1473900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1417000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1212400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1156600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1127000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1064500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1056900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>835800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>822600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>815700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>981400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>755300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3270,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E57" s="3">
         <v>63100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3232,8 +3365,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -3241,11 +3374,11 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>10000</v>
@@ -3253,135 +3386,144 @@
       <c r="T58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E59" s="3">
         <v>83500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>71900</v>
       </c>
       <c r="G59" s="3">
         <v>71900</v>
       </c>
       <c r="H59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="I59" s="3">
         <v>59100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E60" s="3">
         <v>146600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>125900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>107900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>75300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>68500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3389,22 +3531,22 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>276500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>240000</v>
       </c>
       <c r="L61" s="3">
         <v>240000</v>
       </c>
       <c r="M61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="N61" s="3">
         <v>195000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3413,72 +3555,78 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>176100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>180700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E62" s="3">
         <v>98700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>518500</v>
+      </c>
+      <c r="E66" s="3">
         <v>245300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>225900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>422200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>178600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>360600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>350400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>292600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>301200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>90300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>270000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>270600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E72" s="3">
         <v>328300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>312500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>285200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>261700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>246000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>226700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>213900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>199800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>187400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>180000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>169900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>166200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>157000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>139100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>130300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>123200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1430600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1407900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1384800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1349400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1317100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1295300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1284700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>812400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>796100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>776600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>771900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>755800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>749200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>734300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>725400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>711400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>484700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43826</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11600</v>
       </c>
       <c r="J83" s="3">
         <v>11600</v>
       </c>
       <c r="K83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E89" s="3">
         <v>22900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-7100</v>
       </c>
       <c r="K91" s="3">
         <v>-7100</v>
       </c>
       <c r="L91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-106100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-183100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-197600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>201600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>173900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>194800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-192100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>210800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5371,20 +5619,20 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5395,83 +5643,89 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-100</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
       <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E102" s="3">
         <v>12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-180300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>225100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-96600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>145400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-228600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>224100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-31100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,280 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43826</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>256900</v>
+      </c>
+      <c r="E8" s="3">
         <v>210700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>205600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>217400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>208000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>193900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>159100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>152900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>116300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>117900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>107300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>98000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E9" s="3">
         <v>122000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>117500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>97100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>88200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>82500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>84600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>56500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E10" s="3">
         <v>88700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>88100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>96600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>93300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>79900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +960,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E12" s="3">
         <v>28100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>14900</v>
       </c>
       <c r="N12" s="3">
         <v>14900</v>
       </c>
       <c r="O12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P12" s="3">
         <v>15000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,126 +1082,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2400</v>
       </c>
       <c r="I14" s="3">
         <v>2400</v>
       </c>
       <c r="J14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E15" s="3">
         <v>7600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7700</v>
       </c>
       <c r="F15" s="3">
         <v>7700</v>
       </c>
       <c r="G15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H15" s="3">
         <v>7800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7000</v>
       </c>
       <c r="J15" s="3">
         <v>7000</v>
       </c>
       <c r="K15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L15" s="3">
         <v>6800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>235500</v>
+      </c>
+      <c r="E17" s="3">
         <v>192800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>187000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>191300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>181800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>173200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>156100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>152600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>130200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>134000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>107000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>102600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>89100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E18" s="3">
         <v>17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,303 +1377,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E21" s="3">
         <v>30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>2000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1900</v>
       </c>
       <c r="T22" s="3">
         <v>1900</v>
       </c>
       <c r="U22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1914,20 +1974,20 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1300</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2119,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44197</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44015</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43826</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E41" s="3">
         <v>109100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>226800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>407100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>182000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>161300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>257900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>270200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>46200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,244 +2606,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E43" s="3">
         <v>240200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>207800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>210700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>214000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>193400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>177500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>176200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>168300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>153900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>141600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>123000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>121500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>113700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>96600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>96900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E44" s="3">
         <v>218400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>206000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>178100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>161900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>153600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>148500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>137100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>131700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>126400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>121200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>108600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>117100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>105900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>93300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>81100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>72100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>70100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>78000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>626900</v>
+      </c>
+      <c r="E46" s="3">
         <v>645700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>676700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>634800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>795400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>545100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>503000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>582200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>425200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>399300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>364200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>331700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>313200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>268900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>252000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>246200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>448400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>224800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,49 +2916,52 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E48" s="3">
         <v>204500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>156700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>148400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>51600</v>
       </c>
       <c r="Q48" s="3">
         <v>51600</v>
@@ -2863,75 +2970,81 @@
         <v>51600</v>
       </c>
       <c r="S48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="T48" s="3">
         <v>47400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>39400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1093600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>815300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>822800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>831400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>839200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>847400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>768300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>724300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>696300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>704200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>675300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>685700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>505500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>510700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>509900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>483700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>489100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3164,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2000</v>
       </c>
       <c r="T52" s="3">
         <v>2000</v>
       </c>
       <c r="U52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1903300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1949200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1653200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1610700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1771600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1512600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1473900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1417000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1212400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1156600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1127000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1064500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1056900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>835800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>822600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>815700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>981400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>755300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,67 +3400,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E57" s="3">
         <v>48200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3368,8 +3501,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
@@ -3377,11 +3510,11 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>10000</v>
@@ -3389,126 +3522,135 @@
       <c r="U58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E59" s="3">
         <v>163700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>71900</v>
       </c>
       <c r="H59" s="3">
         <v>71900</v>
       </c>
       <c r="I59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="J59" s="3">
         <v>59100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>32300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E60" s="3">
         <v>211900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>146600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>125900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>107900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>75300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>73400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>68500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3516,17 +3658,17 @@
         <v>160000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>200000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3534,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>276500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>240000</v>
       </c>
       <c r="M61" s="3">
         <v>240000</v>
       </c>
       <c r="N61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="O61" s="3">
         <v>195000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3558,75 +3700,81 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>176100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>180700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E62" s="3">
         <v>146700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>87700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>449300</v>
+      </c>
+      <c r="E66" s="3">
         <v>518500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>245300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>225900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>422200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>178600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>360600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>350400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>292600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>301200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>270000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>270600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>356600</v>
+      </c>
+      <c r="E72" s="3">
         <v>340900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>328300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>312500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>285200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>261700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>246000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>226700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>213900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>199800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>187400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>180000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>169900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>166200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>157000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>139100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>130300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>123200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1430600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1407900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1384800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1349400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1317100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1295300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1284700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>812400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>796100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>776600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>771900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>755800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>749200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>734300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>725400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>711400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>484700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44197</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44015</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43826</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4817,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11600</v>
       </c>
       <c r="K83" s="3">
         <v>11600</v>
       </c>
       <c r="L83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E89" s="3">
         <v>23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7100</v>
       </c>
       <c r="L91" s="3">
         <v>-7100</v>
       </c>
       <c r="M91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-255900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-106100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-183100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,91 +5793,97 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>163200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-197600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>201600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>173900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>194800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-192100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>210800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
       </c>
       <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5646,86 +5894,92 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>700</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-100</v>
       </c>
       <c r="T101" s="3">
         <v>-100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-68400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-180300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>225100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-96600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>145400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-228600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>224100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-31100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,280 +665,292 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44197</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43826</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E8" s="3">
         <v>256900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>210700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>205600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>217400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>208000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>193900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>159100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>152900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>117900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>115600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>107300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>98000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E9" s="3">
         <v>151200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>122000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>117500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>114700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>97100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>88200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>84600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>56500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E10" s="3">
         <v>105700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>88700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>96600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>93300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,70 +973,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E12" s="3">
         <v>30200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>14900</v>
       </c>
       <c r="O12" s="3">
         <v>14900</v>
       </c>
       <c r="P12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Q12" s="3">
         <v>15000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,132 +1101,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2400</v>
       </c>
       <c r="J14" s="3">
         <v>2400</v>
       </c>
       <c r="K14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E15" s="3">
         <v>12700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7700</v>
       </c>
       <c r="G15" s="3">
         <v>7700</v>
       </c>
       <c r="H15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I15" s="3">
         <v>7800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7000</v>
       </c>
       <c r="K15" s="3">
         <v>7000</v>
       </c>
       <c r="L15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M15" s="3">
         <v>6800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E17" s="3">
         <v>235500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>192800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>187000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>191300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>181800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>173200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>130200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>134000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>107000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>102600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>89100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E18" s="3">
         <v>21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E21" s="3">
         <v>41500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>40700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>2000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1900</v>
       </c>
       <c r="U22" s="3">
         <v>1900</v>
       </c>
       <c r="V22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1750,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E26" s="3">
         <v>15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E27" s="3">
         <v>15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1977,20 +2037,20 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1300</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -1998,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E33" s="3">
         <v>15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E35" s="3">
         <v>15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44197</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44015</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43826</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E41" s="3">
         <v>121900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>407100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>182000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>257900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>270200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>46200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,256 +2698,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E43" s="3">
         <v>264000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>240200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>207800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>210700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>214000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>193400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>177500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>170700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>168300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>153900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>141600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>123000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>113700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>96600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>96900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E44" s="3">
         <v>226800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>218400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>206000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>178100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>161900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>148500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>137100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>126400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>121200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>108600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>117100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>105900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>93300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>81100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>72100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>70100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>643100</v>
+      </c>
+      <c r="E46" s="3">
         <v>626900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>645700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>676700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>634800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>795400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>545100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>503000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>582200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>425200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>399300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>364200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>331700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>313200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>252000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>246200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>448400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>224800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,52 +3023,55 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E48" s="3">
         <v>194100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>204500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>156700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>148400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>139800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>122500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>51600</v>
       </c>
       <c r="R48" s="3">
         <v>51600</v>
@@ -2973,78 +3080,84 @@
         <v>51600</v>
       </c>
       <c r="T48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="U48" s="3">
         <v>47400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>39400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1112500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1077300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1093600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>815300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>822800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>831400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>839200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>847400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>768300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>724300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>696300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>704200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>675300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>685700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>505500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>510700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>509900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>483700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>489100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2000</v>
       </c>
       <c r="U52" s="3">
         <v>2000</v>
       </c>
       <c r="V52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1955100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1903300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1949200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1653200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1610700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1771600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1512600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1473900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1417000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1212400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1156600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1127000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1064500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1056900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>835800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>822600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>815700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>981400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>755300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,70 +3530,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E57" s="3">
         <v>56600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3504,8 +3637,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
@@ -3513,11 +3646,11 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>10000</v>
@@ -3525,153 +3658,162 @@
       <c r="V58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E59" s="3">
         <v>106000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>163700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>71900</v>
       </c>
       <c r="I59" s="3">
         <v>71900</v>
       </c>
       <c r="J59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K59" s="3">
         <v>59100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E60" s="3">
         <v>162700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>211900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>146600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>125900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>107900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>75300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>73400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="E61" s="3">
         <v>160000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3679,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>276500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>240000</v>
       </c>
       <c r="N61" s="3">
         <v>240000</v>
       </c>
       <c r="O61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="P61" s="3">
         <v>195000</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3703,78 +3845,84 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>176100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>180700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E62" s="3">
         <v>126700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>87700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3897,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E66" s="3">
         <v>449300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>518500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>245300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>422200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>178600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>132200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>360600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>350400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>292600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>301200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>270000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>270600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>374500</v>
+      </c>
+      <c r="E72" s="3">
         <v>356600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>340900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>328300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>312500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>285200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>261700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>246000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>226700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>213900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>199800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>187400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>180000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>169900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>166200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>157000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>139100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>130300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>123200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1484100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1454000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1430600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1407900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1384800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1349400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1317100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1295300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1284700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>812400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>796100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>776600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>771900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>755800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>749200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>734300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>725400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>711400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>484700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44197</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44015</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43826</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E81" s="3">
         <v>15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E83" s="3">
         <v>20000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11600</v>
       </c>
       <c r="L83" s="3">
         <v>11600</v>
       </c>
       <c r="M83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E89" s="3">
         <v>23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-7100</v>
       </c>
       <c r="M91" s="3">
         <v>-7100</v>
       </c>
       <c r="N91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-71600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-255900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-106100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-183100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5843,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,97 +6038,103 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>43100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>163200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-197600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>201600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>173900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>194800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-192100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>210800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
-      </c>
-      <c r="E101" s="3">
-        <v>400</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5897,89 +6145,95 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>-100</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-68400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-180300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>225100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>145400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-228600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>224100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,292 +665,304 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44197</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44015</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43826</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E8" s="3">
         <v>250800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>256900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>210700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>205600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>217400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>208000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>193900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>159100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>152900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>117900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>106100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>115600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>107300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>98000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E9" s="3">
         <v>148100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>151200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>122000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>117500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>114700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>97100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>88200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>55400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>56500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E10" s="3">
         <v>102700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>105700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>96600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>93300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>70900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,73 +986,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E12" s="3">
         <v>27700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>14900</v>
       </c>
       <c r="P12" s="3">
         <v>14900</v>
       </c>
       <c r="Q12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R12" s="3">
         <v>15000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,138 +1120,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2400</v>
       </c>
       <c r="K14" s="3">
         <v>2400</v>
       </c>
       <c r="L14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E15" s="3">
         <v>13100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7700</v>
       </c>
       <c r="H15" s="3">
         <v>7700</v>
       </c>
       <c r="I15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J15" s="3">
         <v>7800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7000</v>
       </c>
       <c r="L15" s="3">
         <v>7000</v>
       </c>
       <c r="M15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N15" s="3">
         <v>6800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>230600</v>
+      </c>
+      <c r="E17" s="3">
         <v>228400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>235500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>192800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>187000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>191300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>181800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>173200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>156100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>152600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>134000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>102600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>95600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>89100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>22400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1411,138 +1443,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E21" s="3">
         <v>42500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>40700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1550,194 +1589,203 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>2000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1900</v>
       </c>
       <c r="V22" s="3">
         <v>1900</v>
       </c>
       <c r="W22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E26" s="3">
         <v>17900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>17900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,31 +2053,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -2040,20 +2100,20 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1300</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2061,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>17900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>17900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44197</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44015</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43826</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E41" s="3">
         <v>113800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>226800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>407100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>182000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>257900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>112500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>270200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>46200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,268 +2790,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E43" s="3">
         <v>291700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>264000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>207800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>210700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>214000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>193400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>177500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>176200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>170700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>168300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>153900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>141600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>121500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>113700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>96600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>96900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E44" s="3">
         <v>221600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>226800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>218400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>206000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>178100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>161900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>148500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>137100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>126400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>121200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>108600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>117100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>105900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>93300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>81100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>72100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>70100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>661700</v>
+      </c>
+      <c r="E46" s="3">
         <v>643100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>626900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>645700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>676700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>634800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>795400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>545100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>503000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>582200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>425200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>399300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>364200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>331700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>313200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>268900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>252000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>246200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>448400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>224800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3026,55 +3130,58 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E48" s="3">
         <v>194900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>194100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>204500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>156700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>148400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>139800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>53100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>51600</v>
       </c>
       <c r="S48" s="3">
         <v>51600</v>
@@ -3083,81 +3190,87 @@
         <v>51600</v>
       </c>
       <c r="U48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="V48" s="3">
         <v>47400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>39400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1112500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1077300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1093600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>815300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>822800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>831400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>839200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>847400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>768300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>724300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>696300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>704200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>675300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>685700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>505500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>510700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>509900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>483700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>489100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2000</v>
       </c>
       <c r="V52" s="3">
         <v>2000</v>
       </c>
       <c r="W52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1965100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1955100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1903300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1949200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1653200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1610700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1771600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1512600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1473900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1417000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1212400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1156600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1127000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1064500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1056900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>835800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>822600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>815700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>981400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>755300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,73 +3660,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E57" s="3">
         <v>48000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>26200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3640,8 +3773,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
@@ -3649,11 +3782,11 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>10000</v>
@@ -3661,138 +3794,147 @@
       <c r="W58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E59" s="3">
         <v>102900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>106000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>163700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>71900</v>
       </c>
       <c r="J59" s="3">
         <v>71900</v>
       </c>
       <c r="K59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="L59" s="3">
         <v>59100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>39000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>32300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E60" s="3">
         <v>150800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>162700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>211900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>146600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>107900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>75300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>73400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3800,23 +3942,23 @@
         <v>200000</v>
       </c>
       <c r="E61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="F61" s="3">
         <v>160000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3824,22 +3966,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>276500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>240000</v>
       </c>
       <c r="O61" s="3">
         <v>240000</v>
       </c>
       <c r="P61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="Q61" s="3">
         <v>195000</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3848,81 +3990,87 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>176100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>180700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E62" s="3">
         <v>120200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>98700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>87700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>485600</v>
+      </c>
+      <c r="E66" s="3">
         <v>471000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>449300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>518500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>245300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>225900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>422200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>178600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>360600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>350400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>292600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>301200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>88300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>90300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>270000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>270600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4401,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E72" s="3">
         <v>374500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>356600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>340900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>328300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>312500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>285200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>261700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>246000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>226700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>213900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>199800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>187400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>180000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>169900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>166200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>157000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>139100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>130300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>123200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1479500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1484100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1454000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1430600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1407900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1384800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1349400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1317100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1295300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1284700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>812400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>796100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>776600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>771900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>755800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>749200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>734300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>725400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>711400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>484700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44197</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44015</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43826</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>17900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
         <v>20800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>11600</v>
       </c>
       <c r="M83" s="3">
         <v>11600</v>
       </c>
       <c r="N83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>27200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,73 +5715,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7100</v>
       </c>
       <c r="N91" s="3">
         <v>-7100</v>
       </c>
       <c r="O91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-255900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-106100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-183100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5846,8 +6079,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,103 +6283,109 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>43100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>163200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-197600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>201600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>173900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>36300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>194800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-192100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>210800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>400</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
       </c>
       <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6148,92 +6396,98 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-100</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-68400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-180300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>225100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>145400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-228600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>224100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-31100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,317 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44197</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44015</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43826</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E8" s="3">
         <v>225000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>250800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>256900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>210700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>205600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>217400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>208000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>159100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>144100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>152900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>116300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>117900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>106100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>115600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>107300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>98000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E9" s="3">
         <v>136600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>151200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>122000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>117500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>114700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>97100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>84600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>55400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>56500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E10" s="3">
         <v>88400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>105700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>96600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,76 +1000,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E12" s="3">
         <v>28900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>14900</v>
       </c>
       <c r="Q12" s="3">
         <v>14900</v>
       </c>
       <c r="R12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="S12" s="3">
         <v>15000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1123,144 +1140,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E14" s="3">
         <v>14400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2400</v>
       </c>
       <c r="L14" s="3">
         <v>2400</v>
       </c>
       <c r="M14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E15" s="3">
         <v>13700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7700</v>
       </c>
       <c r="I15" s="3">
         <v>7700</v>
       </c>
       <c r="J15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K15" s="3">
         <v>7800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7000</v>
       </c>
       <c r="M15" s="3">
         <v>7000</v>
       </c>
       <c r="N15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O15" s="3">
         <v>6800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E17" s="3">
         <v>230600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>228400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>235500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>192800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>187000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>191300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>181800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>173200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>156100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>152600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>134000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>107000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>102600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>95600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>89100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1444,348 +1477,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E21" s="3">
         <v>14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>31000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>2000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1900</v>
       </c>
       <c r="W22" s="3">
         <v>1900</v>
       </c>
       <c r="X22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1852,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2056,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2082,8 +2143,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2103,20 +2164,20 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1300</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2124,8 +2185,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44015</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43826</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E41" s="3">
         <v>95800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>239100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>226800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>407100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>257900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>270200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>46200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,280 +2883,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>320100</v>
+      </c>
+      <c r="E43" s="3">
         <v>301200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>291700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>264000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>240200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>207800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>210700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>214000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>193400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>177500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>176200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>170700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>168300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>153900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>143800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>141600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>123000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>121500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>113700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>96600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>96900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E44" s="3">
         <v>234400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>221600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>226800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>218400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>206000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>178100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>161900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>148500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>137100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>126400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>121200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>108600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>117100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>105900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>93300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>81100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>72100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>70100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E45" s="3">
         <v>30300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E46" s="3">
         <v>661700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>643100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>626900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>645700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>676700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>634800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>795400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>545100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>503000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>582200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>425200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>399300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>364200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>331700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>313200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>268900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>252000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>246200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>448400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>224800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,58 +3238,61 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E48" s="3">
         <v>196500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>194900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>194100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>204500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>156700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>148400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>139800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>55900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>51600</v>
       </c>
       <c r="T48" s="3">
         <v>51600</v>
@@ -3193,84 +3301,90 @@
         <v>51600</v>
       </c>
       <c r="V48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="W48" s="3">
         <v>47400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>39400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1318400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1102500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1112500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1077300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1093600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>815300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>822800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>831400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>839200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>847400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>768300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>724300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>696300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>704200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>675300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>685700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>505500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>510700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>509900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>483700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>489100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>2000</v>
       </c>
       <c r="W52" s="3">
         <v>2000</v>
       </c>
       <c r="X52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2230800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1965100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1955100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1903300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1949200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1653200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1610700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1771600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1512600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1473900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1417000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1212400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1156600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1127000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1064500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1056900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>835800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>822600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>815700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>981400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>755300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,76 +3791,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E57" s="3">
         <v>73400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3776,8 +3910,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>24</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>24</v>
@@ -3785,11 +3919,11 @@
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>10000</v>
@@ -3797,171 +3931,180 @@
       <c r="X58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E59" s="3">
         <v>93900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>102900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>163700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>71900</v>
       </c>
       <c r="K59" s="3">
         <v>71900</v>
       </c>
       <c r="L59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="M59" s="3">
         <v>59100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>39000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>32300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E60" s="3">
         <v>167300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>150800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>211900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>146600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>107900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>79300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>75300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>72800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>73400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>68500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="E61" s="3">
         <v>200000</v>
       </c>
       <c r="F61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="G61" s="3">
         <v>160000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3969,22 +4112,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>276500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>240000</v>
       </c>
       <c r="P61" s="3">
         <v>240000</v>
       </c>
       <c r="Q61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="R61" s="3">
         <v>195000</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3993,84 +4136,90 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>176100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>180700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E62" s="3">
         <v>118300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>120200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>126700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>98700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>743700</v>
+      </c>
+      <c r="E66" s="3">
         <v>485600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>471000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>449300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>518500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>245300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>225900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>422200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>178600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>132200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>360600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>350400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>292600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>301200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>88300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>90300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>270000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>270600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>364700</v>
+      </c>
+      <c r="E72" s="3">
         <v>367400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>374500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>356600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>340900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>328300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>312500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>285200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>261700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>246000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>226700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>213900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>199800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>187400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>180000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>169900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>166200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>157000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>139100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>130300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>123200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1487100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1479500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1484100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1454000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1430600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1407900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1384800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1349400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1317100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1295300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1284700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>812400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>796100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>776600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>771900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>755800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>749200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>734300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>725400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>711400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>484700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44197</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44015</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43826</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11600</v>
       </c>
       <c r="N83" s="3">
         <v>11600</v>
       </c>
       <c r="O83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-7100</v>
       </c>
       <c r="O91" s="3">
         <v>-7100</v>
       </c>
       <c r="P91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-251300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-255900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-106100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-183100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-46500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6247,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6082,8 +6316,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,109 +6529,115 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>163200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-197600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>201600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>173900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>36300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>194800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-192100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>210800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>400</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
       </c>
       <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6399,95 +6648,101 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>700</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-100</v>
       </c>
       <c r="W101" s="3">
         <v>-100</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-68400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-180300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>225100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>145400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-228600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>224100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-31100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,330 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44197</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43826</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E8" s="3">
         <v>220400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>225000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>250800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>256900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>210700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>205600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>217400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>208000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>159100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>152900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>116300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>117900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>106100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>115600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>107300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>98000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E9" s="3">
         <v>133200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>151200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>122000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>117500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>97100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>88200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>84600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>55400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>56500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E10" s="3">
         <v>87200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>88400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>105700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>96600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>70900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,79 +1014,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E12" s="3">
         <v>28300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>14900</v>
       </c>
       <c r="R12" s="3">
         <v>14900</v>
       </c>
       <c r="S12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="T12" s="3">
         <v>15000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,150 +1160,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2400</v>
       </c>
       <c r="M14" s="3">
         <v>2400</v>
       </c>
       <c r="N14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E15" s="3">
         <v>16000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7700</v>
       </c>
       <c r="J15" s="3">
         <v>7700</v>
       </c>
       <c r="K15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L15" s="3">
         <v>7800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7000</v>
       </c>
       <c r="N15" s="3">
         <v>7000</v>
       </c>
       <c r="O15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P15" s="3">
         <v>6800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E17" s="3">
         <v>220800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>230600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>228400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>235500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>192800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>187000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>191300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>181800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>173200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>156100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>134000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>95700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>102600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>95600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>89100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,363 +1511,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E21" s="3">
         <v>22400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>31000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>18300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>2000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1900</v>
       </c>
       <c r="X22" s="3">
         <v>1900</v>
       </c>
       <c r="Y22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2117,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2146,8 +2207,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2167,20 +2228,20 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1300</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2188,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44197</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44015</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43826</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E41" s="3">
         <v>105200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>113800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>239100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>407100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>257900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>41600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>270200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>46200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,292 +2976,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>367100</v>
+      </c>
+      <c r="E43" s="3">
         <v>320100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>301200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>291700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>264000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>240200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>207800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>210700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>214000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>193400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>177500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>176200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>170700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>168300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>153900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>143800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>141600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>123000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>121500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>113700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>96600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>96900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>259600</v>
+      </c>
+      <c r="E44" s="3">
         <v>251300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>234400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>221600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>226800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>218400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>206000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>178100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>153600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>148500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>137100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>126400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>121200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>108600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>117100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>105900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>93300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>81100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>72100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>70100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E45" s="3">
         <v>32200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E46" s="3">
         <v>708800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>661700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>643100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>626900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>645700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>676700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>634800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>795400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>545100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>503000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>582200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>425200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>399300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>364200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>331700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>313200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>268900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>252000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>246200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>448400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>224800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3241,61 +3346,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E48" s="3">
         <v>199400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>196500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>194900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>194100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>204500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>156700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>148400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>139800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>122500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>117300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>55900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>51600</v>
       </c>
       <c r="U48" s="3">
         <v>51600</v>
@@ -3304,87 +3412,93 @@
         <v>51600</v>
       </c>
       <c r="W48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="X48" s="3">
         <v>47400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>39400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1303200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1318400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1102500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1112500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1077300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1093600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>815300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>822800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>831400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>839200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>847400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>768300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>724300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>696300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>704200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>675300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>685700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>505500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>510700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>509900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>483700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>489100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>2000</v>
       </c>
       <c r="X52" s="3">
         <v>2000</v>
       </c>
       <c r="Y52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2259800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2230800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1965100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1955100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1903300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1949200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1653200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1610700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1771600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1512600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1473900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1417000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1212400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1156600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1127000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1064500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1056900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>835800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>822600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>815700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>981400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>755300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,79 +3922,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E57" s="3">
         <v>59400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>73400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>26200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3913,8 +4047,8 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>24</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>24</v>
@@ -3922,11 +4056,11 @@
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>10000</v>
@@ -3934,150 +4068,159 @@
       <c r="Y58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E59" s="3">
         <v>104300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>102900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>163700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>71900</v>
       </c>
       <c r="L59" s="3">
         <v>71900</v>
       </c>
       <c r="M59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="N59" s="3">
         <v>59100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>45400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>32300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E60" s="3">
         <v>163700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>167300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>150800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>146600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>125900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>107900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>82800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>75300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>72800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>73400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>68500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4085,29 +4228,29 @@
         <v>451500</v>
       </c>
       <c r="E61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="F61" s="3">
         <v>200000</v>
       </c>
       <c r="G61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="H61" s="3">
         <v>160000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>200000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4115,22 +4258,22 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>276500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>240000</v>
       </c>
       <c r="Q61" s="3">
         <v>240000</v>
       </c>
       <c r="R61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="S61" s="3">
         <v>195000</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4139,87 +4282,93 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>176100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>180700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E62" s="3">
         <v>128500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>120200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>126700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>146700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>98700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>759400</v>
+      </c>
+      <c r="E66" s="3">
         <v>743700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>485600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>471000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>449300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>518500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>245300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>422200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>132200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>360600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>350400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>292600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>301200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>88300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>90300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>270000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>270600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>368900</v>
+      </c>
+      <c r="E72" s="3">
         <v>364700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>367400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>374500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>356600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>340900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>328300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>312500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>285200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>261700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>246000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>226700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>213900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>199800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>187400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>180000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>169900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>166200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>157000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>139100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>130300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>123200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1487100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1479500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1484100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1454000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1430600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1407900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1384800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1349400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1317100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1295300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1284700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>812400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>796100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>776600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>771900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>755800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>749200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>734300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>725400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>711400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>484700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44197</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44015</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43826</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E83" s="3">
         <v>24100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>11600</v>
       </c>
       <c r="O83" s="3">
         <v>11600</v>
       </c>
       <c r="P83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7100</v>
       </c>
       <c r="P91" s="3">
         <v>-7100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-251300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-71600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-255900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-106100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-183100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,8 +6481,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6319,8 +6553,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,115 +6775,121 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>253800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>163200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-197600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>201600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>173900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>36000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>194800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-192100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>210800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>400</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
       </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6651,98 +6900,104 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>700</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-100</v>
       </c>
       <c r="X101" s="3">
         <v>-100</v>
       </c>
       <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-68400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-180300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>225100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>145400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-228600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>224100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-31100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,342 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44197</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43826</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E8" s="3">
         <v>253100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>220400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>225000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>250800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>256900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>210700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>205600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>208000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>193900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>177000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>159100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>144100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>152900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>116300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>117900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>106100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>115600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>107300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>98000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>170200</v>
+      </c>
+      <c r="E9" s="3">
         <v>153300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>133200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>148100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>151200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>117500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>120800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>97100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>88200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>84600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>63800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>55400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>61700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>56500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E10" s="3">
         <v>99800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>105700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>96600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>68300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,82 +1027,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E12" s="3">
         <v>25400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>14900</v>
       </c>
       <c r="S12" s="3">
         <v>14900</v>
       </c>
       <c r="T12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="U12" s="3">
         <v>15000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>14200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,156 +1179,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E14" s="3">
         <v>9100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2400</v>
       </c>
       <c r="N14" s="3">
         <v>2400</v>
       </c>
       <c r="O14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E15" s="3">
         <v>16100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7700</v>
       </c>
       <c r="K15" s="3">
         <v>7700</v>
       </c>
       <c r="L15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M15" s="3">
         <v>7800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7000</v>
       </c>
       <c r="O15" s="3">
         <v>7000</v>
       </c>
       <c r="P15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E17" s="3">
         <v>243100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>220800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>230600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>228400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>235500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>192800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>187000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>191300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>181800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>173200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>156100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>152600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>107000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>95700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>102600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>95600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>89100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>22000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,378 +1544,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E21" s="3">
         <v>32400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>42500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>18300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>2000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1900</v>
       </c>
       <c r="Y22" s="3">
         <v>1900</v>
       </c>
       <c r="Z22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1956,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2210,8 +2270,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2231,20 +2291,20 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1300</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2252,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,156 +2466,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44197</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44015</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43826</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E41" s="3">
         <v>91700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>109100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>239100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>407100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>182000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>257900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>32000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>270200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>46200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,304 +3068,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>447900</v>
+      </c>
+      <c r="E43" s="3">
         <v>367100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>320100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>301200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>291700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>264000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>240200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>207800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>210700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>214000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>193400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>177500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>176200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>168300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>153900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>141600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>123000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>121500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>113700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>96600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>96900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>270300</v>
+      </c>
+      <c r="E44" s="3">
         <v>259600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>251300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>234400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>221600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>226800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>218400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>206000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>178100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>153600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>148500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>137100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>126400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>121200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>108600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>117100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>105900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>93300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>81100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>72100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>70100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E45" s="3">
         <v>36700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>78000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>815300</v>
+      </c>
+      <c r="E46" s="3">
         <v>755000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>708800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>661700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>643100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>626900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>645700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>676700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>634800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>795400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>545100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>503000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>582200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>425200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>399300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>364200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>331700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>313200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>268900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>252000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>246200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>448400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>224800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3349,64 +3453,67 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E48" s="3">
         <v>194700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>199400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>196500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>194900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>194100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>204500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>156700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>148400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>139800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>122500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>117300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>51600</v>
       </c>
       <c r="V48" s="3">
         <v>51600</v>
@@ -3415,90 +3522,96 @@
         <v>51600</v>
       </c>
       <c r="X48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>47400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>39400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1289400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1303200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1318400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1102500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1112500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1077300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1093600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>815300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>822800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>831400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>839200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>847400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>768300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>724300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>696300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>704200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>675300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>685700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>505500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>510700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>509900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>483700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>489100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>2000</v>
       </c>
       <c r="Y52" s="3">
         <v>2000</v>
       </c>
       <c r="Z52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2304400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2259800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2230800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1965100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1955100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1903300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1949200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1653200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1610700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1771600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1512600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1473900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1417000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1212400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1156600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1127000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1064500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1056900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>835800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>822600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>815700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>981400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>755300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,82 +4052,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E57" s="3">
         <v>90300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>73400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>24300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>26200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4050,8 +4183,8 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
@@ -4059,11 +4192,11 @@
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>10000</v>
@@ -4071,156 +4204,165 @@
       <c r="Z58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E59" s="3">
         <v>92500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>106000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>163700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>71900</v>
       </c>
       <c r="M59" s="3">
         <v>71900</v>
       </c>
       <c r="N59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="O59" s="3">
         <v>59100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>45400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>39000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>32300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E60" s="3">
         <v>182800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>167300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>150800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>162700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>146600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>122000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>107900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>82800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>75300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>72800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>73400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>68500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,29 +4373,29 @@
         <v>451500</v>
       </c>
       <c r="F61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="G61" s="3">
         <v>200000</v>
       </c>
       <c r="H61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="I61" s="3">
         <v>160000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>200000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4261,22 +4403,22 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>276500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>240000</v>
       </c>
       <c r="R61" s="3">
         <v>240000</v>
       </c>
       <c r="S61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="T61" s="3">
         <v>195000</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4285,90 +4427,96 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>176100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>180700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E62" s="3">
         <v>125100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>118300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>120200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>126700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>146700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>98700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4515,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E66" s="3">
         <v>759400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>743700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>485600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>471000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>449300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>518500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>245300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>422200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>132200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>360600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>350400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>292600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>301200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>88300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>90300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>270000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>270600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>385800</v>
+      </c>
+      <c r="E72" s="3">
         <v>368900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>364700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>367400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>374500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>356600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>340900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>328300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>312500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>285200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>261700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>246000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>226700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>213900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>199800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>187400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>180000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>169900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>166200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>157000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>139100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>130300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>123200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1537200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1487100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1479500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1484100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1454000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1430600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1407900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1384800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1349400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1317100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1295300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1284700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>812400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>796100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>776600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>771900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>755800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>749200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>734300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>725400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>711400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>484700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44197</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44015</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43826</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E83" s="3">
         <v>24500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>11600</v>
       </c>
       <c r="P83" s="3">
         <v>11600</v>
       </c>
       <c r="Q83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>24900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-7100</v>
       </c>
       <c r="Q91" s="3">
         <v>-7100</v>
       </c>
       <c r="R91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-251300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-71600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-255900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-106100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-183100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-46900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6556,8 +6789,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,82 +7020,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>253800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>163200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-197600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>201600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>173900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>36000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>194800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-192100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>210800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6861,38 +7109,38 @@
         <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>400</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
       </c>
       <c r="K101" s="3">
+        <v>400</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6903,101 +7151,107 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>700</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-100</v>
       </c>
       <c r="Y101" s="3">
         <v>-100</v>
       </c>
       <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-68400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-180300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>225100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>145400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-228600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>224100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-31100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,355 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44197</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E8" s="3">
         <v>289700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>220400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>225000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>250800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>256900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>210700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>205600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>217400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>208000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>193900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>177300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>177000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>159100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>144100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>152900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>116300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>117900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>106100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>115600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>107300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>98000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E9" s="3">
         <v>170200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>153300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>133200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>148100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>151200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>117500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>105400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>97100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>84600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>63600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>63800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>55400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>61700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>56500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E10" s="3">
         <v>119500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>99800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>105700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>96600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>78400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>68300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>50800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>47400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,85 +1041,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E12" s="3">
         <v>24600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>14900</v>
       </c>
       <c r="T12" s="3">
         <v>14900</v>
       </c>
       <c r="U12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="V12" s="3">
         <v>15000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,162 +1199,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2400</v>
       </c>
       <c r="O14" s="3">
         <v>2400</v>
       </c>
       <c r="P14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E15" s="3">
         <v>14500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7700</v>
       </c>
       <c r="L15" s="3">
         <v>7700</v>
       </c>
       <c r="M15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="N15" s="3">
         <v>7800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7000</v>
       </c>
       <c r="P15" s="3">
         <v>7000</v>
       </c>
       <c r="Q15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R15" s="3">
         <v>6800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>5800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E17" s="3">
         <v>262100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>243100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>220800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>230600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>228400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>235500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>192800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>187000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>191300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>181800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>173200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>156100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>152600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>139200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>134000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>107000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>95700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>102600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>95600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>89100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1545,393 +1578,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>48400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>18300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1900</v>
       </c>
       <c r="Z22" s="3">
         <v>1900</v>
       </c>
       <c r="AA22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2007,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E26" s="3">
         <v>16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2238,8 +2296,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2273,8 +2334,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2294,20 +2355,20 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1300</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2315,8 +2376,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,162 +2536,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3003,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E41" s="3">
         <v>65700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>239100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>226800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>407100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>182000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>257900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>32000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>41600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>270200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>46200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,316 +3161,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>494700</v>
+      </c>
+      <c r="E43" s="3">
         <v>447900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>367100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>320100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>301200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>291700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>264000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>240200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>207800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>210700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>214000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>193400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>177500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>176200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>168300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>153900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>141600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>123000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>121500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>113700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>96600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>96900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E44" s="3">
         <v>270300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>259600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>251300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>234400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>221600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>226800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>218400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>178100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>153600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>148500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>137100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>131700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>126400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>121200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>108600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>117100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>105900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>93300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>81100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>72100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>70100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E45" s="3">
         <v>31400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>878800</v>
+      </c>
+      <c r="E46" s="3">
         <v>815300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>755000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>708800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>661700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>643100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>626900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>645700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>676700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>634800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>795400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>545100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>503000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>582200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>425200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>399300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>364200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>331700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>313200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>268900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>252000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>246200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>448400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>224800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,67 +3561,70 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E48" s="3">
         <v>193600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>194700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>199400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>196500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>194900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>194100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>204500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>156700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>148400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>139800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>122500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>51000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>51600</v>
       </c>
       <c r="W48" s="3">
         <v>51600</v>
@@ -3525,93 +3633,99 @@
         <v>51600</v>
       </c>
       <c r="Y48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="Z48" s="3">
         <v>47400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>39400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1274900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1289400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1303200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1318400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1102500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1112500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1077300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1093600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>815300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>822800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>831400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>839200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>847400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>768300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>724300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>696300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>704200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>675300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>685700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>505500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>510700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>509900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>483700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>489100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>2000</v>
       </c>
       <c r="Z52" s="3">
         <v>2000</v>
       </c>
       <c r="AA52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2304400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2259800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2230800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1965100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1955100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1903300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1949200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1653200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1610700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1771600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1512600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1473900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1417000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1212400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1156600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1127000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1064500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1056900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>835800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>822600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>815700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>981400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>755300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,85 +4183,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E57" s="3">
         <v>98700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>73400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>21300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>24300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>26200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4186,8 +4320,8 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>24</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
@@ -4195,11 +4329,11 @@
       <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>10000</v>
@@ -4207,167 +4341,176 @@
       <c r="AA58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E59" s="3">
         <v>95300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>92500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>106000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>163700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>71900</v>
       </c>
       <c r="N59" s="3">
         <v>71900</v>
       </c>
       <c r="O59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="P59" s="3">
         <v>59100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>50400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>36600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>45400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>39000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>32300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E60" s="3">
         <v>193900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>182800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>167300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>150800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>162700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>146600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>122000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>107900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>94100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>82800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>71700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>79300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>75300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>72800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>73400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>68500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>451500</v>
+        <v>511500</v>
       </c>
       <c r="E61" s="3">
         <v>451500</v>
@@ -4376,29 +4519,29 @@
         <v>451500</v>
       </c>
       <c r="G61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="H61" s="3">
         <v>200000</v>
       </c>
       <c r="I61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="J61" s="3">
         <v>160000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>200000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4406,22 +4549,22 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>276500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>240000</v>
       </c>
       <c r="S61" s="3">
         <v>240000</v>
       </c>
       <c r="T61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="U61" s="3">
         <v>195000</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4430,93 +4573,99 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>176100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>180700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E62" s="3">
         <v>121800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>125100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>128500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>118300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>120200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>126700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>146700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>98700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4669,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>810100</v>
+      </c>
+      <c r="E66" s="3">
         <v>767200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>759400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>743700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>485600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>471000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>449300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>518500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>225900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>422200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>178600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>132200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>360600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>350400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>292600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>301200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>88300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>90300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>270000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>270600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>371400</v>
+      </c>
+      <c r="E72" s="3">
         <v>385800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>368900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>364700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>367400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>374500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>356600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>340900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>328300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>312500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>285200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>261700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>246000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>226700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>213900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>199800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>187400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>180000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>169900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>166200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>157000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>139100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>130300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>123200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1538900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1537200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1487100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1479500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1484100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1454000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1430600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1407900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1384800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1349400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1317100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1295300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1284700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>812400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>796100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>776600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>771900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>755800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>749200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>734300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>725400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>711400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>484700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44197</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E83" s="3">
         <v>23400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>11600</v>
       </c>
       <c r="Q83" s="3">
         <v>11600</v>
       </c>
       <c r="R83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>24900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-7100</v>
       </c>
       <c r="R91" s="3">
         <v>-7100</v>
       </c>
       <c r="S91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-251300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-71600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-255900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-106100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-183100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-46900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,8 +6948,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6792,8 +7026,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,85 +7266,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>253800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>163200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-197600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>201600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>173900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>194800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-192100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>210800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7112,38 +7361,38 @@
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
       </c>
       <c r="L101" s="3">
+        <v>400</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7154,104 +7403,110 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>700</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-100</v>
       </c>
       <c r="Z101" s="3">
         <v>-100</v>
       </c>
       <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-68400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-180300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>225100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-96600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>145400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>22300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-228600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>224100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-31100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,367 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44197</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44015</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E8" s="3">
         <v>227600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>289700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>253100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>220400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>225000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>250800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>256900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>210700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>205600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>217400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>193900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>177300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>177000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>159100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>144100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>152900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>116300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>117900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>106100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>115600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>107300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>98000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E9" s="3">
         <v>149500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>170200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>153300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>133200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>148100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>151200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>122000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>117500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>114700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>105400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>97100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>84600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>63600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>55400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>61700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>56500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E10" s="3">
         <v>78100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>119500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>99800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>105700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>96600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>78400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>68300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>54100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>50700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>53900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>50800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>47400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,88 +1054,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E12" s="3">
         <v>27800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>14900</v>
       </c>
       <c r="U12" s="3">
         <v>14900</v>
       </c>
       <c r="V12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="W12" s="3">
         <v>15000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>13200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1202,168 +1218,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2400</v>
       </c>
       <c r="P14" s="3">
         <v>2400</v>
       </c>
       <c r="Q14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E15" s="3">
         <v>14600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7700</v>
       </c>
       <c r="M15" s="3">
         <v>7700</v>
       </c>
       <c r="N15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7000</v>
       </c>
       <c r="Q15" s="3">
         <v>7000</v>
       </c>
       <c r="R15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S15" s="3">
         <v>6800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>5800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>4700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>237100</v>
+      </c>
+      <c r="E17" s="3">
         <v>234800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>262100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>243100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>230600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>228400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>235500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>187000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>191300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>181800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>173200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>156100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>152600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>130200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>134000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>107000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>95700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>102600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>95600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>89100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>22000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>11700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1579,408 +1611,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E21" s="3">
         <v>12900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>18300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>16700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1900</v>
       </c>
       <c r="AA22" s="3">
         <v>1900</v>
       </c>
       <c r="AB22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>7000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2059,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>8800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2299,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2337,8 +2397,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2358,20 +2418,20 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1300</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2379,8 +2439,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2605,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>5200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>5200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44197</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44015</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3089,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E41" s="3">
         <v>52000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>239100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>226800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>407100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>112500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>72900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>66500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>32000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>41600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>270200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>46200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3164,328 +3253,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>479300</v>
+      </c>
+      <c r="E43" s="3">
         <v>494700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>447900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>367100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>320100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>301200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>291700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>264000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>240200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>207800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>210700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>214000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>193400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>176200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>168300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>153900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>143800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>141600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>123000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>121500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>113700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>96600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>96900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E44" s="3">
         <v>287600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>270300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>259600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>251300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>234400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>221600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>226800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>218400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>178100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>161900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>148500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>137100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>131700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>126400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>121200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>108600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>117100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>105900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>93300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>81100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>72100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>70100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E45" s="3">
         <v>44500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>11700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>896900</v>
+      </c>
+      <c r="E46" s="3">
         <v>878800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>815300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>755000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>708800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>661700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>643100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>626900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>645700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>676700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>634800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>795400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>545100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>503000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>582200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>425200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>399300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>364200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>331700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>313200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>268900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>252000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>246200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>448400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>224800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3564,70 +3668,73 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E48" s="3">
         <v>189700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>193600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>194700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>199400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>196500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>194900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>194100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>204500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>156700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>148400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>139800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>122500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>117300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>51600</v>
       </c>
       <c r="X48" s="3">
         <v>51600</v>
@@ -3636,96 +3743,102 @@
         <v>51600</v>
       </c>
       <c r="Z48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="AA48" s="3">
         <v>47400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>39400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1274900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1289400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1303200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1318400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1102500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1112500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1077300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1093600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>815300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>822800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>831400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>839200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>847400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>768300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>724300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>696300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>704200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>675300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>685700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>505500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>510700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>509900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>483700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>489100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8000</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>2000</v>
       </c>
       <c r="AA52" s="3">
         <v>2000</v>
       </c>
       <c r="AB52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2348000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2349000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2304400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2259800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2230800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1965100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1955100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1903300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1949200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1653200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1610700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1771600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1512600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1473900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1417000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1212400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1156600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1127000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1064500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1056900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>835800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>822600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>815700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>981400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>755300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,88 +4313,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E57" s="3">
         <v>106600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>98700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>73400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>50100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>21300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>24300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>26200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4323,8 +4456,8 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>24</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>24</v>
@@ -4332,11 +4465,11 @@
       <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>10000</v>
@@ -4344,168 +4477,177 @@
       <c r="AB58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E59" s="3">
         <v>75400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>104300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>102900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>106000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>163700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>71900</v>
       </c>
       <c r="O59" s="3">
         <v>71900</v>
       </c>
       <c r="P59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="Q59" s="3">
         <v>59100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>62400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>50400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>36600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>45400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>32300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E60" s="3">
         <v>182000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>193900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>182800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>163700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>167300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>150800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>162700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>146600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>125900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>107900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>82800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>71700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>79300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>75300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>72800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>73400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>68500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4513,7 +4655,7 @@
         <v>511500</v>
       </c>
       <c r="E61" s="3">
-        <v>451500</v>
+        <v>511500</v>
       </c>
       <c r="F61" s="3">
         <v>451500</v>
@@ -4522,29 +4664,29 @@
         <v>451500</v>
       </c>
       <c r="H61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="I61" s="3">
         <v>200000</v>
       </c>
       <c r="J61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="K61" s="3">
         <v>160000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4552,22 +4694,22 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>276500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>240000</v>
       </c>
       <c r="T61" s="3">
         <v>240000</v>
       </c>
       <c r="U61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="V61" s="3">
         <v>195000</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4576,96 +4718,102 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>176100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>180700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E62" s="3">
         <v>116600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>125100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>118300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>120200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>126700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>146700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>98700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4824,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>803900</v>
+      </c>
+      <c r="E66" s="3">
         <v>810100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>767200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>759400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>743700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>485600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>471000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>449300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>518500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>225900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>422200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>178600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>132200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>360600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>350400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>292600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>301200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>88300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>90300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>270000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>270600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E72" s="3">
         <v>371400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>385800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>368900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>364700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>367400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>374500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>356600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>340900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>328300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>312500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>285200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>261700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>246000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>226700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>213900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>199800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>187400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>180000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>169900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>166200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>157000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>139100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>130300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>123200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1544100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1538900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1537200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1487100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1479500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1484100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1454000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1430600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1407900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1384800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1349400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1317100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1295300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1284700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>812400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>796100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>776600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>771900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>755800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>749200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>734300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>725400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>711400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>484700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44197</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44015</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>5200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>23700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>11600</v>
       </c>
       <c r="R83" s="3">
         <v>11600</v>
       </c>
       <c r="S83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-66000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>24900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>14200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-7100</v>
       </c>
       <c r="S91" s="3">
         <v>-7100</v>
       </c>
       <c r="T91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-251300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-255900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-106100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-183100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-46900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7181,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7029,8 +7262,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,93 +7511,99 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>59900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>253800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>163200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-197600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>201600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>173900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>194800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-192100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>210800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
@@ -7364,38 +7612,38 @@
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>400</v>
       </c>
       <c r="L101" s="3">
         <v>400</v>
       </c>
       <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7406,107 +7654,113 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>700</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>-100</v>
       </c>
       <c r="AA101" s="3">
         <v>-100</v>
       </c>
       <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-180300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>225100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-96600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>145400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>21000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>22300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-228600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>224100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-31100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,380 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44197</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E8" s="3">
         <v>229600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>227600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>289700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>253100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>220400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>225000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>250800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>256900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>210700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>205600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>217400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>208000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>193900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>177300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>177000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>159100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>144100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>152900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>116300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>117900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>106100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>115600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>107300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>98000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E9" s="3">
         <v>148600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>170200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>153300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>133200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>148100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>117500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>114700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>105400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>97100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>88200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>84600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>63800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>55400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>61700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>56500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>50600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E10" s="3">
         <v>81000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>119500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>88400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>105700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>96600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>78400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>70900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>68300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>52700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>54100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>50700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>53900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>50800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>47400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E12" s="3">
         <v>26900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16200</v>
-      </c>
-      <c r="U12" s="3">
-        <v>14900</v>
       </c>
       <c r="V12" s="3">
         <v>14900</v>
       </c>
       <c r="W12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="X12" s="3">
         <v>15000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>15200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>14200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>13200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,174 +1238,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2400</v>
       </c>
       <c r="Q14" s="3">
         <v>2400</v>
       </c>
       <c r="R14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
-      </c>
-      <c r="S14" s="3">
-        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E15" s="3">
         <v>13500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>16100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7700</v>
       </c>
       <c r="N15" s="3">
         <v>7700</v>
       </c>
       <c r="O15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7000</v>
       </c>
       <c r="R15" s="3">
         <v>7000</v>
       </c>
       <c r="S15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T15" s="3">
         <v>6800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>5800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>4700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E17" s="3">
         <v>237100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>234800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>262100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>243100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>220800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>230600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>228400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>235500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>187000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>191300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>181800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>173200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>156100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>152600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>130200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>134000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>107000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>95700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>102600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>95600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>89100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>22000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>11700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1612,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E21" s="3">
         <v>20800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>33500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>18300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>20100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>16700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1900</v>
       </c>
       <c r="AB22" s="3">
         <v>1900</v>
       </c>
       <c r="AC22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AD22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>11300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>7000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2110,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>18000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>18000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2359,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2400,8 +2461,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2421,20 +2482,20 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1300</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2442,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>18000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>5200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>18000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>5200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44197</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E41" s="3">
         <v>76900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>239100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>407100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>182000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>161300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>257900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>72900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>66500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>32000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>26100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>41600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>270200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>46200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3256,340 +3346,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>502300</v>
+      </c>
+      <c r="E43" s="3">
         <v>479300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>494700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>447900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>367100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>320100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>301200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>291700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>264000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>240200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>207800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>210700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>214000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>193400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>177500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>176200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>170700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>168300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>153900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>143800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>141600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>123000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>121500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>113700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>96600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>96900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>342800</v>
+      </c>
+      <c r="E44" s="3">
         <v>312000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>287600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>270300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>259600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>251300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>234400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>221600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>226800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>218400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>178100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>161900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>148500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>137100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>131700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>126400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>121200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>108600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>117100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>105900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>93300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>81100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>72100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>70100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E45" s="3">
         <v>28600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>937900</v>
+      </c>
+      <c r="E46" s="3">
         <v>896900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>878800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>815300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>755000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>708800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>661700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>643100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>626900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>645700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>676700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>634800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>795400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>545100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>503000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>582200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>425200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>399300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>364200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>331700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>313200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>268900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>252000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>246200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>448400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>224800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,73 +3776,76 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E48" s="3">
         <v>181700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>189700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>193600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>194700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>199400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>196500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>194900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>194100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>204500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>156700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>148400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>139800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>122500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>117300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>55900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>51300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>51600</v>
       </c>
       <c r="Y48" s="3">
         <v>51600</v>
@@ -3746,99 +3854,105 @@
         <v>51600</v>
       </c>
       <c r="AA48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="AB48" s="3">
         <v>47400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>39400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1248700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1261500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1274900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1289400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1303200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1318400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1102500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1112500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1077300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1093600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>815300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>822800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>831400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>839200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>847400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>768300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>724300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>696300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>704200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>675300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>685700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>505500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>510700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>509900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>483700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>489100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8000</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>2000</v>
       </c>
       <c r="AB52" s="3">
         <v>2000</v>
       </c>
       <c r="AC52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2383900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2348000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2349000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2304400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2259800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2230800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1965100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1955100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1903300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1949200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1653200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1610700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1771600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1512600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1473900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1417000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1212400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1156600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1127000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1064500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1056900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>835800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>822600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>815700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>981400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>755300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,91 +4444,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E57" s="3">
         <v>87200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>98700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>73400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>50100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>21300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>42200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>27500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>24300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>26200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4459,8 +4593,8 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>24</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>24</v>
@@ -4468,11 +4602,11 @@
       <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>10000</v>
@@ -4480,174 +4614,183 @@
       <c r="AC58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E59" s="3">
         <v>113400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>92500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>102900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>163700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>84000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>71900</v>
       </c>
       <c r="P59" s="3">
         <v>71900</v>
       </c>
       <c r="Q59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="R59" s="3">
         <v>59100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>58600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>62400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>57000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>50400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>46500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>36600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>45400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>39000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>32300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E60" s="3">
         <v>200600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>182000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>193900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>182800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>163700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>167300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>150800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>162700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>211900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>146600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>122000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>107900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>82800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>71700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>79300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>75300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>72800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>73400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>68500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4658,7 +4801,7 @@
         <v>511500</v>
       </c>
       <c r="F61" s="3">
-        <v>451500</v>
+        <v>511500</v>
       </c>
       <c r="G61" s="3">
         <v>451500</v>
@@ -4667,29 +4810,29 @@
         <v>451500</v>
       </c>
       <c r="I61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="J61" s="3">
         <v>200000</v>
       </c>
       <c r="K61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="L61" s="3">
         <v>160000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>200000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4697,22 +4840,22 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>276500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>240000</v>
       </c>
       <c r="U61" s="3">
         <v>240000</v>
       </c>
       <c r="V61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="W61" s="3">
         <v>195000</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4721,99 +4864,105 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>176100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>180700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E62" s="3">
         <v>91800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>116600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>121800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>125100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>128500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>118300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>126700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>146700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4978,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E66" s="3">
         <v>803900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>810100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>767200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>759400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>743700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>485600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>471000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>449300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>518500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>245300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>225900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>422200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>195600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>178600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>132200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>360600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>350400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>292600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>301200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>88300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>90300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>270000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>270600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>365700</v>
+      </c>
+      <c r="E72" s="3">
         <v>360500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>371400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>385800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>368900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>364700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>367400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>374500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>356600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>340900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>328300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>312500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>285200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>261700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>246000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>226700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>213900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>199800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>187400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>180000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>169900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>166200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>157000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>139100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>130300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>123200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1560900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1544100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1538900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1537200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1500400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1487100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1479500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1484100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1454000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1430600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1407900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1384800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1349400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1317100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1295300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1284700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>812400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>796100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>776600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>771900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>755800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>749200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>734300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>725400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>711400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>484700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44197</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>18000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>5200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>11600</v>
       </c>
       <c r="S83" s="3">
         <v>11600</v>
       </c>
       <c r="T83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>35400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-66000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>25600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>24900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>14200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-7100</v>
       </c>
       <c r="T91" s="3">
         <v>-7100</v>
       </c>
       <c r="U91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-251300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-255900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-106100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-50000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-183100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-46900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,8 +7415,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7265,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,99 +7757,105 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>59900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>253800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>43100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>163200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-197600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>201600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>173900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>194800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-192100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>210800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-300</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
@@ -7615,38 +7864,38 @@
         <v>-300</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>400</v>
       </c>
       <c r="M101" s="3">
         <v>400</v>
       </c>
       <c r="N101" s="3">
+        <v>400</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7657,110 +7906,116 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>700</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>-100</v>
       </c>
       <c r="AB101" s="3">
         <v>-100</v>
       </c>
       <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E102" s="3">
         <v>25000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-68400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-180300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>225100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-96600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>145400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>21000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>22300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-228600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>224100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-31100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,393 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44197</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E8" s="3">
         <v>263500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>229600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>227600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>289700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>253100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>220400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>225000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>256900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>210700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>205600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>217400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>208000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>193900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>177300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>177000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>159100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>144100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>152900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>116300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>117900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>106100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>115600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>107300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>98000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E9" s="3">
         <v>173200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>170200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>133200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>148100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>117500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>120800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>114700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>105400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>97100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>88200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>84600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>63600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>63800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>55400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>61700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>56500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>50600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E10" s="3">
         <v>90300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>119500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>87200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>88400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>105700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>96600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>93300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>88500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>78400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>70900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>68300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>52700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>54100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>50700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>53900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>50800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>47400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1082,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E12" s="3">
         <v>26500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>14900</v>
       </c>
       <c r="W12" s="3">
         <v>14900</v>
       </c>
       <c r="X12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Y12" s="3">
         <v>15000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>15200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>13900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>14200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>13200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,180 +1258,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2400</v>
       </c>
       <c r="R14" s="3">
         <v>2400</v>
       </c>
       <c r="S14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T14" s="3">
         <v>900</v>
-      </c>
-      <c r="T14" s="3">
-        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>12800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>16100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7700</v>
       </c>
       <c r="O15" s="3">
         <v>7700</v>
       </c>
       <c r="P15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7000</v>
       </c>
       <c r="S15" s="3">
         <v>7000</v>
       </c>
       <c r="T15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U15" s="3">
         <v>6800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>5800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>4700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E17" s="3">
         <v>261500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>237100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>234800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>262100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>243100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>220800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>230600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>228400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>235500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>187000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>191300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>181800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>173200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>156100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>152600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>139200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>130200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>134000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>107000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>95700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>102600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>95600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>89100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>22000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>13000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>11700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,438 +1679,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-6100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>25300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>33500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>30300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>18300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>18900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>22400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>20100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>16700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>6700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
       </c>
       <c r="L22" s="3">
+        <v>600</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1900</v>
       </c>
       <c r="AC22" s="3">
         <v>1900</v>
       </c>
       <c r="AD22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AE22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>11300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>7000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2162,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>18000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>8800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>18000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>8800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2420,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2464,8 +2525,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2485,20 +2546,20 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1300</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>24</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>24</v>
@@ -2506,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>6100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>18000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>8800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>5200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>18000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>8800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>5200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44197</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E41" s="3">
         <v>64400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>105200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>109100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>239100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>407100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>182000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>257900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>112500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>72900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>66500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>32000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>26100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>41600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>270200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>46200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,352 +3439,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>507300</v>
+      </c>
+      <c r="E43" s="3">
         <v>502300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>479300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>494700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>447900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>367100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>320100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>301200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>291700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>264000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>207800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>210700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>214000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>193400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>177500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>176200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>170700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>168300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>153900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>141600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>123000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>121500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>113700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>96600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>96900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>337200</v>
+      </c>
+      <c r="E44" s="3">
         <v>342800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>312000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>287600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>270300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>259600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>251300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>234400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>221600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>226800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>218400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>178100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>161900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>148500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>137100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>131700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>126400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>121200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>108600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>117100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>105900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>93300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>81100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>72100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>70100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E45" s="3">
         <v>28400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E46" s="3">
         <v>937900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>896900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>878800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>815300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>755000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>708800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>661700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>643100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>626900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>645700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>676700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>634800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>795400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>545100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>503000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>582200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>425200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>399300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>364200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>331700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>313200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>268900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>252000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>246200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>448400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>224800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3779,76 +3884,79 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E48" s="3">
         <v>183400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>189700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>193600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>194700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>199400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>196500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>194900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>194100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>204500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>156700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>148400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>139800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>122500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>117300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>55900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>53100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>51000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>51300</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>51600</v>
       </c>
       <c r="Z48" s="3">
         <v>51600</v>
@@ -3857,102 +3965,108 @@
         <v>51600</v>
       </c>
       <c r="AB48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="AC48" s="3">
         <v>47400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>39400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1236100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1248700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1261500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1274900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1289400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1303200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1318400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1102500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1112500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1077300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1093600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>815300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>822800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>831400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>839200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>847400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>768300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>724300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>696300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>704200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>675300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>685700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>505500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>510700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>509900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>483700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>489100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E52" s="3">
         <v>13800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8000</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>2000</v>
       </c>
       <c r="AC52" s="3">
         <v>2000</v>
       </c>
       <c r="AD52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2391400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2383900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2348000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2349000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2304400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2259800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2230800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1965100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1955100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1903300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1949200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1653200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1610700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1771600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1512600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1473900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1417000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1212400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1156600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1127000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1064500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1056900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>835800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>822600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>815700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>981400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>755300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,94 +4575,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E57" s="3">
         <v>111200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>98700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>73400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>50100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>21300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>42200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>27500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>24300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>26200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4596,8 +4730,8 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>24</v>
@@ -4605,11 +4739,11 @@
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AB58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="3">
         <v>10000</v>
@@ -4617,180 +4751,189 @@
       <c r="AD58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E59" s="3">
         <v>108900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>113400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>75400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>92500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>104300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>163700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>71900</v>
       </c>
       <c r="Q59" s="3">
         <v>71900</v>
       </c>
       <c r="R59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="S59" s="3">
         <v>59100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>58600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>50400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>46500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>36600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>33100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>45400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>39000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>32300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>233300</v>
+      </c>
+      <c r="E60" s="3">
         <v>220200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>182000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>193900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>182800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>163700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>167300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>150800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>211900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>146600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>125900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>122000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>107900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>94100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>82800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>71700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>79300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>74300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>75300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>72800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>73400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>68500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4804,7 +4947,7 @@
         <v>511500</v>
       </c>
       <c r="G61" s="3">
-        <v>451500</v>
+        <v>511500</v>
       </c>
       <c r="H61" s="3">
         <v>451500</v>
@@ -4813,29 +4956,29 @@
         <v>451500</v>
       </c>
       <c r="J61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="K61" s="3">
         <v>200000</v>
       </c>
       <c r="L61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="M61" s="3">
         <v>160000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4843,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>276500</v>
-      </c>
-      <c r="U61" s="3">
-        <v>240000</v>
       </c>
       <c r="V61" s="3">
         <v>240000</v>
       </c>
       <c r="W61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="X61" s="3">
         <v>195000</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4867,102 +5010,108 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>176100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>180700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E62" s="3">
         <v>91300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>116600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>121800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>125100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>128500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>118300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>126700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>146700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>20500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>824700</v>
+      </c>
+      <c r="E66" s="3">
         <v>823000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>803900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>810100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>767200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>759400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>743700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>485600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>471000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>449300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>518500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>225900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>422200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>195600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>178600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>132200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>360600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>350400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>292600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>301200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>88300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>90300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>270000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>270600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>357400</v>
+      </c>
+      <c r="E72" s="3">
         <v>365700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>360500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>371400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>385800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>368900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>364700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>367400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>374500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>356600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>340900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>328300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>312500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>285200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>261700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>246000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>226700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>213900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>199800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>187400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>180000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>169900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>166200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>157000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>139100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>130300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>123200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1566700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1560900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1544100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1538900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1537200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1500400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1487100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1479500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1484100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1454000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1430600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1407900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1384800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1349400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1317100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1295300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1284700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>812400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>796100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>776600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>771900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>755800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>749200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>734300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>725400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>711400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>484700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44197</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>18000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>8800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>5200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E83" s="3">
         <v>23900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>11600</v>
       </c>
       <c r="T83" s="3">
         <v>11600</v>
       </c>
       <c r="U83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-66000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>25600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>24900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>14200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-7100</v>
       </c>
       <c r="U91" s="3">
         <v>-7100</v>
       </c>
       <c r="V91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-7700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-251300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-255900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-106100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-50000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-183100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-46900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7649,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7502,8 +7736,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,105 +8003,111 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>59900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>253800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>43100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>163200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-197600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>201600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>173900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>36300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>194800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-192100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>210800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-300</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
@@ -7867,38 +8116,38 @@
         <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>400</v>
       </c>
       <c r="N101" s="3">
         <v>400</v>
       </c>
       <c r="O101" s="3">
+        <v>400</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7909,113 +8158,119 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>700</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>-100</v>
       </c>
       <c r="AC101" s="3">
         <v>-100</v>
       </c>
       <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-68400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-180300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>225100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-96600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>145400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>21000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>22300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-228600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>224100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-31100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44197</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44106</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E8" s="3">
         <v>253200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>263500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>227600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>253100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>220400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>225000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>250800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>256900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>210700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>205600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>217400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>208000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>193900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>177300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>177000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>174600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>159100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>144100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>152900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>116300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>117900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>106100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>115600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>107300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>98000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E9" s="3">
         <v>185900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>173200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>170200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>153300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>133200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>148100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>117500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>120800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>114700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>105400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>98900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>97100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>100800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>88200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>82500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>84600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>63600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>63800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>55400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>61700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>56500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>50600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E10" s="3">
         <v>67300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>90300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>119500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>87200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>102700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>105700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>96600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>78400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>70900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>61600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>68300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>52700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>54100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>50700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>53900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>50800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>47400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,97 +1096,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E12" s="3">
         <v>27600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>16200</v>
-      </c>
-      <c r="W12" s="3">
-        <v>14900</v>
       </c>
       <c r="X12" s="3">
         <v>14900</v>
       </c>
       <c r="Y12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Z12" s="3">
         <v>15000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>15200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>13700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>13900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>14200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>13200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,186 +1278,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2400</v>
       </c>
       <c r="S14" s="3">
         <v>2400</v>
       </c>
       <c r="T14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U14" s="3">
         <v>900</v>
-      </c>
-      <c r="U14" s="3">
-        <v>100</v>
       </c>
       <c r="V14" s="3">
         <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E15" s="3">
         <v>12600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7700</v>
       </c>
       <c r="P15" s="3">
         <v>7700</v>
       </c>
       <c r="Q15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R15" s="3">
         <v>7800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>7000</v>
       </c>
       <c r="T15" s="3">
         <v>7000</v>
       </c>
       <c r="U15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V15" s="3">
         <v>6800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>7200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>5800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>5600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>5500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>4700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>4900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E17" s="3">
         <v>262100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>261500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>237100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>234800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>262100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>243100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>220800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>230600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>228400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>235500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>192800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>187000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>191300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>181800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>173200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>160100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>156100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>152600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>139200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>130200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>134000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>109500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>107000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>95700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>102600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>95600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>89100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>13000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>11700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>8900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1680,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-6100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>30300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>18300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>18900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>22400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>20100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>16700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>2000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1900</v>
       </c>
       <c r="AD22" s="3">
         <v>1900</v>
       </c>
       <c r="AE22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AF22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>19500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>16600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>11300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>7000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>18000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>8800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>7000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>18000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>8800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2481,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2528,8 +2589,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2549,20 +2610,20 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1300</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>24</v>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>24</v>
@@ -2570,8 +2631,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>6100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>18000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>8800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>7000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>5200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>18000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>8800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>7000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>5200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44197</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44106</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E41" s="3">
         <v>71600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>113800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>239100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>226800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>407100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>182000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>161300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>257900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>112500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>72900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>66500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>32000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>26100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>41600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>270200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>46200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,364 +3532,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E43" s="3">
         <v>507300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>502300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>479300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>494700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>447900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>367100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>320100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>301200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>291700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>264000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>240200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>207800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>210700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>214000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>193400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>177500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>176200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>170700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>168300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>153900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>143800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>141600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>123000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>121500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>113700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>96600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>96900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>362900</v>
+      </c>
+      <c r="E44" s="3">
         <v>337200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>342800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>312000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>287600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>270300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>259600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>251300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>234400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>221600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>226800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>218400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>206000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>178100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>161900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>153600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>148500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>137100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>131700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>126400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>121200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>108600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>117100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>105900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>93300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>81100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>72100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>70100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>11200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>9800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>9400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>11700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>954700</v>
+      </c>
+      <c r="E46" s="3">
         <v>937000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>937900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>896900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>878800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>815300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>755000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>708800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>661700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>643100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>626900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>645700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>676700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>634800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>795400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>545100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>503000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>582200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>425200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>399300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>364200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>331700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>313200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>268900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>252000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>246200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>448400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>224800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3887,79 +3992,82 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E48" s="3">
         <v>182600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>183400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>189700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>193600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>194700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>199400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>196500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>194900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>194100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>204500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>156700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>148400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>139800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>122500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>117300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>53100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>51000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>51300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>51600</v>
       </c>
       <c r="AA48" s="3">
         <v>51600</v>
@@ -3968,105 +4076,111 @@
         <v>51600</v>
       </c>
       <c r="AC48" s="3">
+        <v>51600</v>
+      </c>
+      <c r="AD48" s="3">
         <v>47400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>39400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1223600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1236100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1248700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1261500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1274900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1289400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1303200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1318400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1102500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1112500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1077300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1093600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>815300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>822800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>831400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>839200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>847400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>768300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>724300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>696300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>704200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>675300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>685700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>505500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>510700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>509900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>483700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>489100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>456600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E52" s="3">
         <v>35600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8000</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>2000</v>
       </c>
       <c r="AD52" s="3">
         <v>2000</v>
       </c>
       <c r="AE52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF52" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2391400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2383900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2348000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2349000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2304400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2259800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2230800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1965100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1955100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1903300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1949200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1653200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1610700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1771600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1512600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1473900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1417000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1212400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1156600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1127000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1064500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1056900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>835800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>822600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>815700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>981400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>755300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,97 +4706,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E57" s="3">
         <v>104000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>111200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>98700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>50100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>30800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>25700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>21300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>37600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>27500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>24300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>26200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4733,8 +4867,8 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>24</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
@@ -4742,11 +4876,11 @@
       <c r="AA58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AB58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AC58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="3">
         <v>10000</v>
@@ -4754,191 +4888,200 @@
       <c r="AE58" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E59" s="3">
         <v>129300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>108900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>113400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>75400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>92500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>104300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>102900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>71900</v>
       </c>
       <c r="R59" s="3">
         <v>71900</v>
       </c>
       <c r="S59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="T59" s="3">
         <v>59100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>58600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>50400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>46500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>36600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>33100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>45400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>39000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>32300</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E60" s="3">
         <v>233300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>220200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>182000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>193900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>182800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>163700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>167300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>146600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>125900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>122000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>107900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>94100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>98000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>82800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>71700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>79300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>74300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>75300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>72800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>73400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>68500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>511500</v>
+        <v>576500</v>
       </c>
       <c r="E61" s="3">
         <v>511500</v>
@@ -4950,7 +5093,7 @@
         <v>511500</v>
       </c>
       <c r="H61" s="3">
-        <v>451500</v>
+        <v>511500</v>
       </c>
       <c r="I61" s="3">
         <v>451500</v>
@@ -4959,29 +5102,29 @@
         <v>451500</v>
       </c>
       <c r="K61" s="3">
-        <v>200000</v>
+        <v>451500</v>
       </c>
       <c r="L61" s="3">
         <v>200000</v>
       </c>
       <c r="M61" s="3">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="N61" s="3">
         <v>160000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>200000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4989,22 +5132,22 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>276500</v>
-      </c>
-      <c r="V61" s="3">
-        <v>240000</v>
       </c>
       <c r="W61" s="3">
         <v>240000</v>
       </c>
       <c r="X61" s="3">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="Y61" s="3">
         <v>195000</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -5013,105 +5156,111 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>176100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>180700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E62" s="3">
         <v>79900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>116600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>125100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>128500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>118300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>126700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>146700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>27400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>27600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>17500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>20500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>21300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>860000</v>
+      </c>
+      <c r="E66" s="3">
         <v>824700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>823000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>803900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>810100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>767200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>759400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>743700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>485600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>471000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>449300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>518500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>225900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>422200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>195600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>178600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>132200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>360600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>350400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>292600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>301200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>88300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>90300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>270000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>270600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>320700</v>
+      </c>
+      <c r="E72" s="3">
         <v>357400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>365700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>360500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>371400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>385800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>368900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>364700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>367400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>374500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>356600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>340900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>328300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>312500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>285200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>261700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>246000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>226700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>213900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>199800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>187400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>180000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>169900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>166200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>157000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>139100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>130300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>123200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>118000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1540800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1566700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1560900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1544100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1538900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1537200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1487100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1479500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1484100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1454000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1430600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1407900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1384800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1349400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1317100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1295300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1284700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>812400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>796100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>776600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>771900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>755800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>749200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>734300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>725400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>711400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>484700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>474500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44197</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44106</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>18000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>8800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>7000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>5200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
         <v>22500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>11600</v>
       </c>
       <c r="U83" s="3">
         <v>11600</v>
       </c>
       <c r="V83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>7900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-66000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>25300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>20000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>25600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>8000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>9700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>24900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>14200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8800</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-7100</v>
       </c>
       <c r="V91" s="3">
         <v>-7100</v>
       </c>
       <c r="W91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-7700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-251300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-255900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-106100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-50000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-183100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-46900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7739,8 +7973,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,111 +8249,117 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>59900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>253800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>163200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-197600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>201600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>173900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>36300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>194800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-192100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>210800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-300</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -8119,38 +8368,38 @@
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>400</v>
       </c>
       <c r="O101" s="3">
         <v>400</v>
       </c>
       <c r="P101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -8161,116 +8410,122 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>700</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>-100</v>
       </c>
       <c r="AD101" s="3">
         <v>-100</v>
       </c>
       <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-68400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-180300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>225100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-96600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>145400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>21000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>22300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>12200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-228600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>224100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-31100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-4400</v>
       </c>
     </row>
